--- a/data/turm/MCT-3A.xlsx
+++ b/data/turm/MCT-3A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47beb8eb16c7f43f/Área de Trabalho/Programs/Hor-rios-do-CEFET/data/turm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_8B6891BF813AD8836F8A78637BA7E52CFB29BED7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0B8A068-2BBD-4D81-80A9-A5FC9A8F3EC5}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_8B6891BF818ADCF38F0A64637BBE15EDCF87BECA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B329892-1D61-46A7-A6B5-E8191ED591AC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>MCT-3A</t>
   </si>
@@ -43,40 +43,40 @@
     <t>7:00</t>
   </si>
   <si>
+    <t>[-, João Paulo-Lab. de eletroeletrônica-3A, -]</t>
+  </si>
+  <si>
+    <t>[Nilton Maia-Elementos de máquinas-3A, Humberto-Eletropneumática-3A, Leonardo-Manut. Mecânica-3A, Victor Lima-CAM-3A]</t>
+  </si>
+  <si>
+    <t>André Guimarães-Máquinas Térmicas e de Fluxo</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>[Euclides-Tecnologia da soldagem-3A, Euclides-Tecnologia da soldagem-3A, Carlos Eduardo-Processos de usinagem 1-3A, Carlos Eduardo-Processos de usinagem 1-3A]</t>
-  </si>
-  <si>
     <t>7:50</t>
   </si>
   <si>
-    <t>[Victor Lima-CAM-3A, Victor Lima-CAM-3A, Victor Lima-CAM-3A, Victor Lima-CAM-3A]</t>
-  </si>
-  <si>
-    <t>[Emerson-Robótica-3A, Emerson-Robótica-3A, Carlos Eduardo-Processos de usinagem 1-3A, Carlos Eduardo-Processos de usinagem 1-3A]</t>
-  </si>
-  <si>
-    <t>[João Paulo-Lab. de eletroeletrônica-3A, Euclides-Tecnologia da soldagem-3A, Euclides-Tecnologia da soldagem-3A, João Paulo-Lab. de eletroeletrônica-3A]</t>
-  </si>
-  <si>
-    <t>[Eudes Porto-Microcontroladores-3A, Eudes Porto-Microcontroladores-3A, Eudes Porto-Microcontroladores-3A, Eudes Porto-Microcontroladores-3A]</t>
+    <t>[-, -, Eudes-Microcontroladores-3A, Pedro Bispo-Automação Industrial-3A]</t>
+  </si>
+  <si>
+    <t>[Ludoff-Eletrohidráulica-3A, Humberto-Eletropneumática-3A, Leonardo-Manut. Mecânica-3A, Victor Lima-CAM-3A]</t>
+  </si>
+  <si>
+    <t>[Euclides-Tecnologia da soldagem-3A, Carlos Eduardo-Processos de Usinagem 1-3A, Rogério-Processos de Usinagem 2-3A, Emerson-Robótica-3A]</t>
+  </si>
+  <si>
+    <t>[-, Nilton Maia-Elementos de máquinas-3A, -, Ludoff-Eletrohidráulica-3A]</t>
   </si>
   <si>
     <t>8:40</t>
   </si>
   <si>
-    <t>André Guimarães-Maq. Term. Fluxo</t>
-  </si>
-  <si>
-    <t>[Nilton Maia-Elementos de máquinas-3A, Nilton Maia-Elementos de máquinas-3A, Nilton Maia-Elementos de máquinas-3A, Nilton Maia-Elementos de máquinas-3A]</t>
-  </si>
-  <si>
-    <t>[Emerson-Robótica-3A, Emerson-Robótica-3A, Pedro Bispo-Lab. Máquinas Elétricas-3A, Pedro Bispo-Lab. Máquinas Elétricas-3A]</t>
-  </si>
-  <si>
-    <t>[Rogério-Processos de usinagem 2-3A, Rogério-Processos de usinagem 2-3A, Rogério-Processos de usinagem 2-3A, Rogério-Processos de usinagem 2-3A]</t>
+    <t>[Leonardo-Manut. Mecânica-3A, Humberto-Eletropneumática-3A, Nilton Maia-Elementos de máquinas-3A, Victor Lima-CAM-3A]</t>
+  </si>
+  <si>
+    <t>[-, -, -, Ludoff-Eletrohidráulica-3A]</t>
   </si>
   <si>
     <t>9:30</t>
@@ -88,25 +88,19 @@
     <t>9:50</t>
   </si>
   <si>
-    <t>[Pedro Bispo-Automação Industrial-3A, Pedro Bispo-Automação Industrial-3A, Pedro Bispo-Automação Industrial-3A, Pedro Bispo-Automação Industrial-3A]</t>
-  </si>
-  <si>
-    <t>[Leonardo-Manutenção mecânica-3A, Leonardo-Manutenção mecânica-3A, Leonardo-Manutenção mecânica-3A, Leonardo-Manutenção mecânica-3A]</t>
-  </si>
-  <si>
     <t>Cleidson-Máquinas Elétricas</t>
   </si>
   <si>
     <t>10:40</t>
   </si>
   <si>
-    <t>[Humberto-Eletropneumática-3A, Humberto-Eletropneumática-3A, Humberto-Eletropneumática-3A, Humberto-Eletropneumática-3A]</t>
-  </si>
-  <si>
-    <t>[Ludoff-Eletrohidráulica-3A, Ludoff-Eletrohidráulica-3A, Ludoff-Eletrohidráulica-3A, Ludoff-Eletrohidráulica-3A]</t>
-  </si>
-  <si>
     <t>11:30</t>
+  </si>
+  <si>
+    <t>[Pedro Bispo-Lab. Máquinas Elétricas-3A, Pedro Bispo-Lab. Máquinas Elétricas-3A, João Paulo-Lab. de eletroeletrônica-3A]</t>
+  </si>
+  <si>
+    <t>[Humberto-Eletropneumática-3A, Leonardo-Manut. Mecânica-3A, Victor Lima-CAM-3A, Nilton Maia-Elementos de máquinas-3A]</t>
   </si>
   <si>
     <t>12:20</t>
@@ -520,7 +514,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -551,56 +546,56 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,144 +623,144 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -785,162 +780,162 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/turm/MCT-3A.xlsx
+++ b/data/turm/MCT-3A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47beb8eb16c7f43f/Área de Trabalho/Programs/Hor-rios-do-CEFET/data/turm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_8B6891BF818ADCF38F0A64637BBE15EDCF87BECA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B329892-1D61-46A7-A6B5-E8191ED591AC}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_8B6891BF819ADA9D37CB77637B1ABD6BF495BFD1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F05EDB7-4A4A-4CE8-954A-1A2B5E36EF83}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,40 +43,37 @@
     <t>7:00</t>
   </si>
   <si>
-    <t>[-, João Paulo-Lab. de eletroeletrônica-3A, -]</t>
-  </si>
-  <si>
-    <t>[Nilton Maia-Elementos de máquinas-3A, Humberto-Eletropneumática-3A, Leonardo-Manut. Mecânica-3A, Victor Lima-CAM-3A]</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>[Eudes-Microcontroladores-3A, -, Pedro Bispo-Automação Industrial-3A, -]</t>
+  </si>
+  <si>
+    <t>Cleidson-Máquinas Elétricas</t>
+  </si>
+  <si>
+    <t>[Nilton Maia-Elementos de máquinas-3A, Victor Lima-CAM-3A, Euclides-Tecnologia da soldagem-3A, Leonardo-Manut. Mecânica-3A]</t>
+  </si>
+  <si>
+    <t>7:50</t>
+  </si>
+  <si>
+    <t>[João Paulo-Lab. de eletroeletrônica-3A, João Paulo-Lab. de eletroeletrônica-3A, Pedro Bispo-Lab. Máquinas Elétricas-3A]</t>
+  </si>
+  <si>
+    <t>[Humberto-Eletropneumática-3A, Rogério-Processos de Usinagem 2-3A, Ludoff-Eletrohidráulica-3A, Leonardo-Manut. Mecânica-3A]</t>
   </si>
   <si>
     <t>André Guimarães-Máquinas Térmicas e de Fluxo</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>7:50</t>
-  </si>
-  <si>
-    <t>[-, -, Eudes-Microcontroladores-3A, Pedro Bispo-Automação Industrial-3A]</t>
-  </si>
-  <si>
-    <t>[Ludoff-Eletrohidráulica-3A, Humberto-Eletropneumática-3A, Leonardo-Manut. Mecânica-3A, Victor Lima-CAM-3A]</t>
-  </si>
-  <si>
-    <t>[Euclides-Tecnologia da soldagem-3A, Carlos Eduardo-Processos de Usinagem 1-3A, Rogério-Processos de Usinagem 2-3A, Emerson-Robótica-3A]</t>
-  </si>
-  <si>
-    <t>[-, Nilton Maia-Elementos de máquinas-3A, -, Ludoff-Eletrohidráulica-3A]</t>
-  </si>
-  <si>
     <t>8:40</t>
   </si>
   <si>
-    <t>[Leonardo-Manut. Mecânica-3A, Humberto-Eletropneumática-3A, Nilton Maia-Elementos de máquinas-3A, Victor Lima-CAM-3A]</t>
-  </si>
-  <si>
-    <t>[-, -, -, Ludoff-Eletrohidráulica-3A]</t>
+    <t>[Victor Lima-CAM-3A, -, Emerson-Robótica-3A, -]</t>
+  </si>
+  <si>
+    <t>[-, -, Pedro Bispo-Lab. Máquinas Elétricas-3A]</t>
   </si>
   <si>
     <t>9:30</t>
@@ -88,19 +85,22 @@
     <t>9:50</t>
   </si>
   <si>
-    <t>Cleidson-Máquinas Elétricas</t>
+    <t>[-, Pedro Bispo-Automação Industrial-3A, -, Eudes-Microcontroladores-3A]</t>
+  </si>
+  <si>
+    <t>[Euclides-Tecnologia da soldagem-3A, Carlos Eduardo-Processos de Usinagem 1-3A, Emerson-Robótica-3A, Nilton Maia-Elementos de máquinas-3A]</t>
   </si>
   <si>
     <t>10:40</t>
   </si>
   <si>
+    <t>[Humberto-Eletropneumática-3A, Rogério-Processos de Usinagem 2-3A, Ludoff-Eletrohidráulica-3A, Carlos Eduardo-Processos de Usinagem 1-3A]</t>
+  </si>
+  <si>
     <t>11:30</t>
   </si>
   <si>
-    <t>[Pedro Bispo-Lab. Máquinas Elétricas-3A, Pedro Bispo-Lab. Máquinas Elétricas-3A, João Paulo-Lab. de eletroeletrônica-3A]</t>
-  </si>
-  <si>
-    <t>[Humberto-Eletropneumática-3A, Leonardo-Manut. Mecânica-3A, Victor Lima-CAM-3A, Nilton Maia-Elementos de máquinas-3A]</t>
+    <t>[Euclides-Tecnologia da soldagem-3A, Carlos Eduardo-Processos de Usinagem 1-3A, Victor Lima-CAM-3A, Nilton Maia-Elementos de máquinas-3A]</t>
   </si>
   <si>
     <t>12:20</t>
@@ -514,8 +514,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="111.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="117.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="132.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="135" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -546,13 +548,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -563,79 +565,79 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -643,39 +645,39 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -703,19 +705,19 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -723,19 +725,19 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -743,19 +745,19 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,19 +765,19 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -783,19 +785,19 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,19 +805,19 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,19 +825,19 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -863,19 +865,19 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,19 +885,19 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,19 +905,19 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,19 +925,19 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/turm/MCT-3A.xlsx
+++ b/data/turm/MCT-3A.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Processos de Usinagem 2, -, -, -]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[Emerson-Robótica, Victor Lima-CAM, Ludoff-Eletrohidráulica, Nilton Maia-Elementos de máquinas]</t>
+          <t>[Victor Lima-CAM, -, Emerson-Robótica, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Humberto-Eletropneumática, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, João Paulo-Lab. de eletroeletrônica]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Eudes-Microcontroladores, -, Pedro Bispo-Automação Industrial, -]</t>
+          <t>[Rogério-Processos de Usinagem 2, -, -, -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, Leonardo-Manut. Mecânica, Carlos Eduardo-Processos de Usinagem 1, Euclides-Tecnologia da soldagem]</t>
+          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Nilton Maia-Elementos de máquinas, Leonardo-Manut. Mecânica]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Victor Lima-CAM, Emerson-Robótica, Nilton Maia-Elementos de máquinas]</t>
+          <t>Cleidson-Máquinas Elétri</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Euclides-Tecnologia da soldagem, Humberto-Eletropneumática, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cleidson-Máquinas Elétri</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[Eudes-Microcontroladores, -, Pedro Bispo-Automação Industrial, -]</t>
+          <t>[-, Pedro Bispo-Lab. Máquinas Elétricas, Pedro Bispo-Lab. Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, Leonardo-Manut. Mecânica, Carlos Eduardo-Processos de Usinagem 1, Euclides-Tecnologia da soldagem]</t>
+          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Nilton Maia-Elementos de máquinas, Leonardo-Manut. Mecânica]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Victor Lima-CAM, Emerson-Robótica, Nilton Maia-Elementos de máquinas]</t>
+          <t>Cleidson-Máquinas Elétri</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Euclides-Tecnologia da soldagem, Humberto-Eletropneumática, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cleidson-Máquinas Elétri</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Eudes-Microcontroladores, -, Pedro Bispo-Automação Industrial, -]</t>
+          <t>[Emerson-Robótica, -, -, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, Leonardo-Manut. Mecânica, Carlos Eduardo-Processos de Usinagem 1, Euclides-Tecnologia da soldagem]</t>
+          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Nilton Maia-Elementos de máquinas, Leonardo-Manut. Mecânica]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, -, Humberto-Eletropneumática, -]</t>
+          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[João Paulo-Lab. de eletroeletrônica, -, -]</t>
+          <t>[Euclides-Tecnologia da soldagem, Humberto-Eletropneumática, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>[-, -, Victor Lima-CAM, -]</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Eudes-Microcontroladores, -, Pedro Bispo-Automação Industrial, -]</t>
+          <t>[Emerson-Robótica, -, -, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, Leonardo-Manut. Mecânica, Carlos Eduardo-Processos de Usinagem 1, Euclides-Tecnologia da soldagem]</t>
+          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Nilton Maia-Elementos de máquinas, Leonardo-Manut. Mecânica]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-, -, Humberto-Eletropneumática, -]</t>
+          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[João Paulo-Lab. de eletroeletrônica, Pedro Bispo-Lab. Máquinas Elétricas, Pedro Bispo-Lab. Máquinas Elétricas]</t>
+          <t>[Euclides-Tecnologia da soldagem, Humberto-Eletropneumática, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor Lima-CAM, -, -, -]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Nilton Maia-Elementos de máquinas, Ludoff-Eletrohidráulica, Victor Lima-CAM, Emerson-Robótica]</t>
+          <t>[Rogério-Processos de Usinagem 2, -, Victor Lima-CAM, Emerson-Robótica]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, -, Humberto-Eletropneumática, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, João Paulo-Lab. de eletroeletrônica]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/data/turm/MCT-3A.xlsx
+++ b/data/turm/MCT-3A.xlsx
@@ -473,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[Victor Lima-CAM, -, Emerson-Robótica, Rogério-Processos de Usinagem 2]</t>
+          <t>[-, -, Carlos Eduardo-Processos de Usinagem 1, -]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Euclides-Tecnologia da soldagem, Eudes-Microcontroladores, Victor Lima-CAM, Carlos Eduardo-Processos de Usinagem 1]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-, -, João Paulo-Lab. de eletroeletrônica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, -, -, -]</t>
+          <t>[Humberto-Eletropneumática, Leonardo-Manut. Mecânica, -, Nilton Maia-Elementos de máquinas]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Nilton Maia-Elementos de máquinas, Leonardo-Manut. Mecânica]</t>
+          <t>[João Paulo-Lab. de eletroeletrônica, João Paulo-Lab. de eletroeletrônica, -]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cleidson-Máquinas Elétri</t>
+          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Emerson-Robótica, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Euclides-Tecnologia da soldagem, Humberto-Eletropneumática, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, Pedro Bispo-Lab. Máquinas Elétricas, Pedro Bispo-Lab. Máquinas Elétricas]</t>
+          <t>[Humberto-Eletropneumática, Leonardo-Manut. Mecânica, -, Nilton Maia-Elementos de máquinas]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Nilton Maia-Elementos de máquinas, Leonardo-Manut. Mecânica]</t>
+          <t>[Eudes-Microcontroladores, -, Victor Lima-CAM, -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Emerson-Robótica, Rogério-Processos de Usinagem 2]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Cleidson-Máquinas Elétri</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[Euclides-Tecnologia da soldagem, Humberto-Eletropneumática, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Emerson-Robótica, -, -, -]</t>
+          <t>[Humberto-Eletropneumática, Leonardo-Manut. Mecânica, Euclides-Tecnologia da soldagem, Nilton Maia-Elementos de máquinas]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Nilton Maia-Elementos de máquinas, Leonardo-Manut. Mecânica]</t>
+          <t>[Eudes-Microcontroladores, -, Victor Lima-CAM, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Emerson-Robótica, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Euclides-Tecnologia da soldagem, Humberto-Eletropneumática, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-, -, Victor Lima-CAM, -]</t>
+          <t>Cleidson-Máquinas Elétri</t>
         </is>
       </c>
     </row>
@@ -633,22 +633,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Emerson-Robótica, -, -, -]</t>
+          <t>[Humberto-Eletropneumática, Leonardo-Manut. Mecânica, Euclides-Tecnologia da soldagem, Nilton Maia-Elementos de máquinas]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Nilton Maia-Elementos de máquinas, Leonardo-Manut. Mecânica]</t>
+          <t>[Pedro Bispo-Lab. Máquinas Elétricas, Pedro Bispo-Lab. Máquinas Elétricas, -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Emerson-Robótica, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Euclides-Tecnologia da soldagem, Humberto-Eletropneumática, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,22 +665,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Victor Lima-CAM, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, -, Victor Lima-CAM, Emerson-Robótica]</t>
+          <t>[-, -, Carlos Eduardo-Processos de Usinagem 1, -]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor Lima-CAM, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1, Euclides-Tecnologia da soldagem]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-, -, João Paulo-Lab. de eletroeletrônica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/data/turm/MCT-3A.xlsx
+++ b/data/turm/MCT-3A.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Robótica, Victor Lima-CAM, Carlos Eduardo-Processos de Usinagem 1, Pedro Bispo-Automação Industrial]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-, -, Carlos Eduardo-Processos de Usinagem 1, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Euclides-Tecnologia da soldagem, Eudes-Microcontroladores, Victor Lima-CAM, Carlos Eduardo-Processos de Usinagem 1]</t>
+          <t>[-, João Paulo-Lab. de eletroeletrônica, -]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>[-, Carlos Eduardo-Processos de Usinagem 1, Leonardo-Manut. Mecânica, -]</t>
         </is>
       </c>
     </row>
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Humberto-Eletropneumática, Leonardo-Manut. Mecânica, -, Nilton Maia-Elementos de máquinas]</t>
+          <t>[Rogério-Processos de Usinagem 2, Euclides-Tecnologia da soldagem, Ludoff-Eletrohidráulica, Eudes-Microcontroladores]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[João Paulo-Lab. de eletroeletrônica, João Paulo-Lab. de eletroeletrônica, -]</t>
+          <t>Cleidson-Máquinas Elétri</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Emerson-Robótica, Rogério-Processos de Usinagem 2]</t>
+          <t>[Humberto-Eletropneumática, -, -, Nilton Maia-Elementos de máquinas]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>[Pedro Bispo-Lab. Máquinas Elétricas, -, -]</t>
         </is>
       </c>
     </row>
@@ -537,17 +537,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[Humberto-Eletropneumática, Leonardo-Manut. Mecânica, -, Nilton Maia-Elementos de máquinas]</t>
+          <t>[Rogério-Processos de Usinagem 2, Euclides-Tecnologia da soldagem, Ludoff-Eletrohidráulica, Eudes-Microcontroladores]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Eudes-Microcontroladores, -, Victor Lima-CAM, -]</t>
+          <t>Cleidson-Máquinas Elétri</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Emerson-Robótica, Rogério-Processos de Usinagem 2]</t>
+          <t>[Humberto-Eletropneumática, -, -, Nilton Maia-Elementos de máquinas]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cleidson-Máquinas Elétri</t>
+          <t>[Pedro Bispo-Lab. Máquinas Elétricas, -, -]</t>
         </is>
       </c>
     </row>
@@ -601,17 +601,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Humberto-Eletropneumática, Leonardo-Manut. Mecânica, Euclides-Tecnologia da soldagem, Nilton Maia-Elementos de máquinas]</t>
+          <t>[Rogério-Processos de Usinagem 2, Euclides-Tecnologia da soldagem, Ludoff-Eletrohidráulica, Eudes-Microcontroladores]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Eudes-Microcontroladores, -, Victor Lima-CAM, -]</t>
+          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Emerson-Robótica, Rogério-Processos de Usinagem 2]</t>
+          <t>[Humberto-Eletropneumática, -, Leonardo-Manut. Mecânica, Nilton Maia-Elementos de máquinas]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cleidson-Máquinas Elétri</t>
+          <t>[Pedro Bispo-Automação Industrial, Emerson-Robótica, Victor Lima-CAM, -]</t>
         </is>
       </c>
     </row>
@@ -633,17 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Humberto-Eletropneumática, Leonardo-Manut. Mecânica, Euclides-Tecnologia da soldagem, Nilton Maia-Elementos de máquinas]</t>
+          <t>[Rogério-Processos de Usinagem 2, Euclides-Tecnologia da soldagem, Ludoff-Eletrohidráulica, Eudes-Microcontroladores]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Lab. Máquinas Elétricas, Pedro Bispo-Lab. Máquinas Elétricas, -]</t>
+          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Emerson-Robótica, Rogério-Processos de Usinagem 2]</t>
+          <t>[Humberto-Eletropneumática, -, Leonardo-Manut. Mecânica, Nilton Maia-Elementos de máquinas]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Automação Industrial, Emerson-Robótica, Victor Lima-CAM, -]</t>
         </is>
       </c>
     </row>
@@ -665,17 +665,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Carlos Eduardo-Processos de Usinagem 1, Emerson-Robótica, Victor Lima-CAM, Pedro Bispo-Automação Industrial]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-, -, Carlos Eduardo-Processos de Usinagem 1, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Victor Lima-CAM, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1, Euclides-Tecnologia da soldagem]</t>
+          <t>[-, João Paulo-Lab. de eletroeletrônica, -]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Leonardo-Manut. Mecânica, Carlos Eduardo-Processos de Usinagem 1, -]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MCT-3A.xlsx
+++ b/data/turm/MCT-3A.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Emerson-Robótica, Victor Lima-CAM, Carlos Eduardo-Processos de Usinagem 1, Pedro Bispo-Automação Industrial]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,17 +483,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[-, João Paulo-Lab. de eletroeletrônica, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Robótica, Euclides-Tecnologia da soldagem, Rogério-Processos de Usinagem 2, Victor Lima-CAM]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-, Carlos Eduardo-Processos de Usinagem 1, Leonardo-Manut. Mecânica, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, Euclides-Tecnologia da soldagem, Ludoff-Eletrohidráulica, Eudes-Microcontroladores]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cleidson-Máquinas Elétri</t>
+          <t>[Pedro Bispo-Lab. Máquinas Elétricas, João Paulo-Lab. de eletroeletrônica, -]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Humberto-Eletropneumática, -, -, Nilton Maia-Elementos de máquinas]</t>
+          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Robótica, Euclides-Tecnologia da soldagem, Rogério-Processos de Usinagem 2, Victor Lima-CAM]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Lab. Máquinas Elétricas, -, -]</t>
+          <t>[Eudes-Microcontroladores, -, Pedro Bispo-Automação Industrial, Leonardo-Manut. Mecânica]</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, Euclides-Tecnologia da soldagem, Ludoff-Eletrohidráulica, Eudes-Microcontroladores]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cleidson-Máquinas Elétri</t>
+          <t>[Pedro Bispo-Lab. Máquinas Elétricas, João Paulo-Lab. de eletroeletrônica, -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Humberto-Eletropneumática, -, -, Nilton Maia-Elementos de máquinas]</t>
+          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Carlos Eduardo-Processos de Usinagem 1, Nilton Maia-Elementos de máquinas, Humberto-Eletropneumática, Ludoff-Eletrohidráulica]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Lab. Máquinas Elétricas, -, -]</t>
+          <t>[Eudes-Microcontroladores, -, Pedro Bispo-Automação Industrial, Leonardo-Manut. Mecânica]</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, Euclides-Tecnologia da soldagem, Ludoff-Eletrohidráulica, Eudes-Microcontroladores]</t>
+          <t>[Victor Lima-CAM, Rogério-Processos de Usinagem 2, Euclides-Tecnologia da soldagem, Emerson-Robótica]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Humberto-Eletropneumática, -, Leonardo-Manut. Mecânica, Nilton Maia-Elementos de máquinas]</t>
+          <t>Cleidson-Máquinas Elétri</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Carlos Eduardo-Processos de Usinagem 1, Nilton Maia-Elementos de máquinas, Humberto-Eletropneumática, Ludoff-Eletrohidráulica]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Automação Industrial, Emerson-Robótica, Victor Lima-CAM, -]</t>
+          <t>[Eudes-Microcontroladores, -, Pedro Bispo-Automação Industrial, Leonardo-Manut. Mecânica]</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, Euclides-Tecnologia da soldagem, Ludoff-Eletrohidráulica, Eudes-Microcontroladores]</t>
+          <t>[Victor Lima-CAM, Rogério-Processos de Usinagem 2, Euclides-Tecnologia da soldagem, Emerson-Robótica]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Humberto-Eletropneumática, -, Leonardo-Manut. Mecânica, Nilton Maia-Elementos de máquinas]</t>
+          <t>Cleidson-Máquinas Elétri</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Carlos Eduardo-Processos de Usinagem 1, Nilton Maia-Elementos de máquinas, Humberto-Eletropneumática, Ludoff-Eletrohidráulica]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Automação Industrial, Emerson-Robótica, Victor Lima-CAM, -]</t>
+          <t>[Eudes-Microcontroladores, -, Pedro Bispo-Automação Industrial, Leonardo-Manut. Mecânica]</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Carlos Eduardo-Processos de Usinagem 1, Emerson-Robótica, Victor Lima-CAM, Pedro Bispo-Automação Industrial]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, João Paulo-Lab. de eletroeletrônica, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Carlos Eduardo-Processos de Usinagem 1, Nilton Maia-Elementos de máquinas, Humberto-Eletropneumática, Ludoff-Eletrohidráulica]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[-, Leonardo-Manut. Mecânica, Carlos Eduardo-Processos de Usinagem 1, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MCT-3A.xlsx
+++ b/data/turm/MCT-3A.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Leonardo-Manut. Mecânica, -, Emerson-Robótica]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[Emerson-Robótica, Euclides-Tecnologia da soldagem, Rogério-Processos de Usinagem 2, Victor Lima-CAM]</t>
+          <t>[Nilton Maia-Elementos de máquinas, Leonardo-Manut. Mecânica, Emerson-Robótica, Ludoff-Eletrohidráulica]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Lab. Máquinas Elétricas, João Paulo-Lab. de eletroeletrônica, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>[-, Leonardo-Manut. Mecânica, -, Euclides-Tecnologia da soldagem]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Emerson-Robótica, Euclides-Tecnologia da soldagem, Rogério-Processos de Usinagem 2, Victor Lima-CAM]</t>
+          <t>[Nilton Maia-Elementos de máquinas, Victor Lima-CAM, Carlos Eduardo-Processos de Usinagem 1, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Eudes-Microcontroladores, -, Pedro Bispo-Automação Industrial, Leonardo-Manut. Mecânica]</t>
+          <t>Cleidson-Máquinas Elétri</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Lab. Máquinas Elétricas, João Paulo-Lab. de eletroeletrônica, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>[Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Eudes-Microcontroladores, Euclides-Tecnologia da soldagem]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[Carlos Eduardo-Processos de Usinagem 1, Nilton Maia-Elementos de máquinas, Humberto-Eletropneumática, Ludoff-Eletrohidráulica]</t>
+          <t>[Nilton Maia-Elementos de máquinas, Victor Lima-CAM, Carlos Eduardo-Processos de Usinagem 1, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[Eudes-Microcontroladores, -, Pedro Bispo-Automação Industrial, Leonardo-Manut. Mecânica]</t>
+          <t>Cleidson-Máquinas Elétri</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Victor Lima-CAM, Rogério-Processos de Usinagem 2, Euclides-Tecnologia da soldagem, Emerson-Robótica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cleidson-Máquinas Elétri</t>
+          <t>[Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Eudes-Microcontroladores, Euclides-Tecnologia da soldagem]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Carlos Eduardo-Processos de Usinagem 1, Nilton Maia-Elementos de máquinas, Humberto-Eletropneumática, Ludoff-Eletrohidráulica]</t>
+          <t>[Nilton Maia-Elementos de máquinas, Victor Lima-CAM, Carlos Eduardo-Processos de Usinagem 1, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Eudes-Microcontroladores, -, Pedro Bispo-Automação Industrial, Leonardo-Manut. Mecânica]</t>
+          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Victor Lima-CAM, Rogério-Processos de Usinagem 2, Euclides-Tecnologia da soldagem, Emerson-Robótica]</t>
+          <t>[-, Emerson-Robótica, -, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Pedro Bispo-Lab. Máquinas Elétricas, João Paulo-Lab. de eletroeletrônica]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cleidson-Máquinas Elétri</t>
+          <t>[Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Eudes-Microcontroladores, Ludoff-Eletrohidráulica]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Carlos Eduardo-Processos de Usinagem 1, Nilton Maia-Elementos de máquinas, Humberto-Eletropneumática, Ludoff-Eletrohidráulica]</t>
+          <t>[Ludoff-Eletrohidráulica, Victor Lima-CAM, Carlos Eduardo-Processos de Usinagem 1, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Eudes-Microcontroladores, -, Pedro Bispo-Automação Industrial, Leonardo-Manut. Mecânica]</t>
+          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
     </row>
@@ -670,17 +670,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Pedro Bispo-Lab. Máquinas Elétricas, João Paulo-Lab. de eletroeletrônica]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Eudes-Microcontroladores, Euclides-Tecnologia da soldagem]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[Carlos Eduardo-Processos de Usinagem 1, Nilton Maia-Elementos de máquinas, Humberto-Eletropneumática, Ludoff-Eletrohidráulica]</t>
+          <t>[Ludoff-Eletrohidráulica, Emerson-Robótica, Leonardo-Manut. Mecânica, -]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/data/turm/MCT-3A.xlsx
+++ b/data/turm/MCT-3A.xlsx
@@ -478,22 +478,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Nilton Maia-Elementos de máquinas, Emerson-Robótica, Euclides-Tecnologia da soldagem, -]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[-, Leonardo-Manut. Mecânica, -, Emerson-Robótica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[Nilton Maia-Elementos de máquinas, Leonardo-Manut. Mecânica, Emerson-Robótica, Ludoff-Eletrohidráulica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Processos de Usinagem 2, Leonardo-Manut. Mecânica, Pedro Bispo-Automação Industrial, Humberto-Eletropneumática]</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Manut. Mecânica, Humberto-Eletropneumática, Rogério-Processos de Usinagem 2, Pedro Bispo-Automação Industrial]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[-, Leonardo-Manut. Mecânica, -, Euclides-Tecnologia da soldagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Nilton Maia-Elementos de máquinas, Victor Lima-CAM, Carlos Eduardo-Processos de Usinagem 1, Rogério-Processos de Usinagem 2]</t>
+          <t>Cleidson-Máquinas Elétri</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cleidson-Máquinas Elétri</t>
+          <t>[Rogério-Processos de Usinagem 2, Leonardo-Manut. Mecânica, Pedro Bispo-Automação Industrial, Humberto-Eletropneumática]</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leonardo-Manut. Mecânica, Humberto-Eletropneumática, Rogério-Processos de Usinagem 2, Pedro Bispo-Automação Industrial]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Eudes-Microcontroladores, Euclides-Tecnologia da soldagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[Nilton Maia-Elementos de máquinas, Victor Lima-CAM, Carlos Eduardo-Processos de Usinagem 1, Rogério-Processos de Usinagem 2]</t>
+          <t>Cleidson-Máquinas Elétri</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cleidson-Máquinas Elétri</t>
+          <t>[Victor Lima-CAM, Ludoff-Eletrohidráulica, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[João Paulo-Lab. de eletroeletrônica, -, Pedro Bispo-Lab. Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Emerson-Robótica, Euclides-Tecnologia da soldagem, Nilton Maia-Elementos de máquinas, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Eudes-Microcontroladores, Euclides-Tecnologia da soldagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Nilton Maia-Elementos de máquinas, Victor Lima-CAM, Carlos Eduardo-Processos de Usinagem 1, Rogério-Processos de Usinagem 2]</t>
+          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>[Victor Lima-CAM, Ludoff-Eletrohidráulica, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-, Emerson-Robótica, -, -]</t>
+          <t>[João Paulo-Lab. de eletroeletrônica, -, Pedro Bispo-Lab. Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-, Pedro Bispo-Lab. Máquinas Elétricas, João Paulo-Lab. de eletroeletrônica]</t>
+          <t>[Emerson-Robótica, Euclides-Tecnologia da soldagem, Nilton Maia-Elementos de máquinas, -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Eudes-Microcontroladores, Ludoff-Eletrohidráulica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Victor Lima-CAM, Carlos Eduardo-Processos de Usinagem 1, Rogério-Processos de Usinagem 2]</t>
+          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>[Victor Lima-CAM, Ludoff-Eletrohidráulica, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
         </is>
       </c>
     </row>
@@ -670,22 +670,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-, Pedro Bispo-Lab. Máquinas Elétricas, João Paulo-Lab. de eletroeletrônica]</t>
+          <t>[Emerson-Robótica, Euclides-Tecnologia da soldagem, Nilton Maia-Elementos de máquinas, -]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Eudes-Microcontroladores, Euclides-Tecnologia da soldagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Emerson-Robótica, Leonardo-Manut. Mecânica, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor Lima-CAM, Ludoff-Eletrohidráulica, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MCT-3A.xlsx
+++ b/data/turm/MCT-3A.xlsx
@@ -478,22 +478,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[Nilton Maia-Elementos de máquinas, Emerson-Robótica, Euclides-Tecnologia da soldagem, -]</t>
+          <t>[-, Eudes-Microcontroladores, -, -]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Vinicius-CAM, Eudes-Microcontroladores, Leonardo R.-Manutenção mecânica, Ludoff-Eletrohidráulica]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, Leonardo-Manut. Mecânica, Pedro Bispo-Automação Industrial, Humberto-Eletropneumática]</t>
+          <t>[-, -, -, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Leonardo-Manut. Mecânica, Humberto-Eletropneumática, Rogério-Processos de Usinagem 2, Pedro Bispo-Automação Industrial]</t>
+          <t>[-, Eudes-Microcontroladores, -, -]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Vinicius-CAM, Eudes-Microcontroladores, Leonardo R.-Manutenção mecânica, Ludoff-Eletrohidráulica]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cleidson-Máquinas Elétri</t>
+          <t>[-, Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, Leonardo-Manut. Mecânica, Pedro Bispo-Automação Industrial, Humberto-Eletropneumática]</t>
+          <t>[Ludoff-Eletrohidráulica, Cláudio-Tecnologia da Soldagem, Carlos-Processos de Usinagem 1, Rogério-Processos de Usinagem 2]</t>
         </is>
       </c>
     </row>
@@ -542,22 +542,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Leonardo-Manut. Mecânica, Humberto-Eletropneumática, Rogério-Processos de Usinagem 2, Pedro Bispo-Automação Industrial]</t>
+          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, -, -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Nilton-Elementos de Máquinas, Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Emerson-Robótica]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cleidson-Máquinas Elétri</t>
+          <t>[-, Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[Victor Lima-CAM, Ludoff-Eletrohidráulica, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
+          <t>[Ludoff-Eletrohidráulica, Cláudio-Tecnologia da Soldagem, Leonardo R.-Manutenção mecânica, Vinicius-CAM]</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[João Paulo-Lab. de eletroeletrônica, -, Pedro Bispo-Lab. Máquinas Elétricas]</t>
+          <t>Renan-Máquinas Elétri</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Emerson-Robótica, Euclides-Tecnologia da soldagem, Nilton Maia-Elementos de máquinas, -]</t>
+          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, -, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Nilton-Elementos de Máquinas, Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Emerson-Robótica]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>[-, Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Victor Lima-CAM, Ludoff-Eletrohidráulica, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
+          <t>[Carlos-Processos de Usinagem 1, Cláudio-Tecnologia da Soldagem, Leonardo R.-Manutenção mecânica, Vinicius-CAM]</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[João Paulo-Lab. de eletroeletrônica, -, Pedro Bispo-Lab. Máquinas Elétricas]</t>
+          <t>Renan-Máquinas Elétri</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Emerson-Robótica, Euclides-Tecnologia da soldagem, Nilton Maia-Elementos de máquinas, -]</t>
+          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, -, -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Nilton-Elementos de Máquinas, Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Emerson-Robótica]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>André Guimarães-Máquinas Térmicas e de Fl</t>
+          <t>[-, -, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Victor Lima-CAM, Ludoff-Eletrohidráulica, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
+          <t>[Carlos-Processos de Usinagem 1, Cláudio-Tecnologia da Soldagem, Rogério-Processos de Usinagem 2, -]</t>
         </is>
       </c>
     </row>
@@ -670,22 +670,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Emerson-Robótica, Euclides-Tecnologia da soldagem, Nilton Maia-Elementos de máquinas, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Nilton-Elementos de Máquinas, Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Emerson-Robótica]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[Victor Lima-CAM, Ludoff-Eletrohidráulica, Eudes-Microcontroladores, Carlos Eduardo-Processos de Usinagem 1]</t>
+          <t>[Carlos-Processos de Usinagem 1, -, Rogério-Processos de Usinagem 2, -]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MCT-3A.xlsx
+++ b/data/turm/MCT-3A.xlsx
@@ -473,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Processos de Usinagem 2, Emerson-Robótica, Humberto-Eletropneumática, Ludoff-Eletrohidráulica]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-, Eudes-Microcontroladores, -, -]</t>
+          <t>[-, João Paulo-Laboratório de Eletroeletrônica, -]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Vinicius-CAM, Eudes-Microcontroladores, Leonardo R.-Manutenção mecânica, Ludoff-Eletrohidráulica]</t>
+          <t>[Carlos-Processos de Usinagem 1, Eudes-Microcontroladores, Rogério-Processos de Usinagem 2, Cláudio-Tecnologia da Soldagem]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-, -, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-, -, -, Rogério-Processos de Usinagem 2]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Processos de Usinagem 2, Emerson-Robótica, Humberto-Eletropneumática, Ludoff-Eletrohidráulica]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-, Eudes-Microcontroladores, -, -]</t>
+          <t>[-, João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Vinicius-CAM, Eudes-Microcontroladores, Leonardo R.-Manutenção mecânica, Ludoff-Eletrohidráulica]</t>
+          <t>[Carlos-Processos de Usinagem 1, Eudes-Microcontroladores, Rogério-Processos de Usinagem 2, Cláudio-Tecnologia da Soldagem]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-, Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Cláudio-Tecnologia da Soldagem, Carlos-Processos de Usinagem 1, Rogério-Processos de Usinagem 2]</t>
+          <t>[-, Pedro Bispo-Laboratório de Máquinas Elétricas, -]</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Leonardo R.-Manutenção mecânica, Nilton-Elementos de Máquinas, Vinicius-CAM]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, -, -]</t>
+          <t>[-, João Paulo-Laboratório de Eletroeletrônica, -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Nilton-Elementos de Máquinas, Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Emerson-Robótica]</t>
+          <t>[Cláudio-Tecnologia da Soldagem, Pedro Bispo-Automação Industrial, Emerson-Robótica, Humberto-Eletropneumática]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>Renan-Máquinas Elétri</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Cláudio-Tecnologia da Soldagem, Leonardo R.-Manutenção mecânica, Vinicius-CAM]</t>
+          <t>[-, Pedro Bispo-Laboratório de Máquinas Elétricas, -]</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>[Carlos-Processos de Usinagem 1, Leonardo R.-Manutenção mecânica, Nilton-Elementos de Máquinas, Vinicius-CAM]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[-, -, Eudes-Microcontroladores, Pedro Bispo-Automação Industrial]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Emerson-Robótica, Humberto-Eletropneumática]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Renan-Máquinas Elétri</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, -, -]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[Nilton-Elementos de Máquinas, Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Emerson-Robótica]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[-, Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica]</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Carlos-Processos de Usinagem 1, Cláudio-Tecnologia da Soldagem, Leonardo R.-Manutenção mecânica, Vinicius-CAM]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas, -]</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Renan-Máquinas Elétri</t>
+          <t>[Carlos-Processos de Usinagem 1, Leonardo R.-Manutenção mecânica, Nilton-Elementos de Máquinas, Vinicius-CAM]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Nilton-Elementos de Máquinas, Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Emerson-Robótica]</t>
+          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Cláudio-Tecnologia da Soldagem, -]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-, -, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Carlos-Processos de Usinagem 1, Cláudio-Tecnologia da Soldagem, Rogério-Processos de Usinagem 2, -]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas, -]</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Leonardo R.-Manutenção mecânica, Nilton-Elementos de Máquinas, Vinicius-CAM]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, -, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Nilton-Elementos de Máquinas, Pedro Bispo-Automação Industrial, Humberto-Eletropneumática, Emerson-Robótica]</t>
+          <t>[-, Eudes-Microcontroladores, -, -]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-, -, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[Carlos-Processos de Usinagem 1, -, Rogério-Processos de Usinagem 2, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MCT-3A.xlsx
+++ b/data/turm/MCT-3A.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, Emerson-Robótica, Humberto-Eletropneumática, Ludoff-Eletrohidráulica]</t>
+          <t>[-, -, -, Leonardo R.-Manutenção mecânica]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-, João Paulo-Laboratório de Eletroeletrônica, -]</t>
+          <t>[Pedro Bispo-Automação Industrial, Vinicius-CAM, Nilton-Elementos de Máquinas, -]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Carlos-Processos de Usinagem 1, Eudes-Microcontroladores, Rogério-Processos de Usinagem 2, Cláudio-Tecnologia da Soldagem]</t>
+          <t>[Emerson-Robótica, Carlos-Processos de Usinagem 1, Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, -, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
     </row>
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Rogério-Processos de Usinagem 2, Emerson-Robótica, Humberto-Eletropneumática, Ludoff-Eletrohidráulica]</t>
+          <t>[-, Vinicius-CAM, -, Leonardo R.-Manutenção mecânica]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-, João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>[Pedro Bispo-Automação Industrial, -, Nilton-Elementos de Máquinas, Leonardo R.-Manutenção mecânica]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Carlos-Processos de Usinagem 1, Eudes-Microcontroladores, Rogério-Processos de Usinagem 2, Cláudio-Tecnologia da Soldagem]</t>
+          <t>[Emerson-Robótica, Carlos-Processos de Usinagem 1, Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-, Pedro Bispo-Laboratório de Máquinas Elétricas, -]</t>
+          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, -, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, Leonardo R.-Manutenção mecânica, Nilton-Elementos de Máquinas, Vinicius-CAM]</t>
+          <t>[Emerson-Robótica, Vinicius-CAM, Carlos-Processos de Usinagem 1, Ludoff-Eletrohidráulica]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-, João Paulo-Laboratório de Eletroeletrônica, -]</t>
+          <t>[-, -, Nilton-Elementos de Máquinas, -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Cláudio-Tecnologia da Soldagem, Pedro Bispo-Automação Industrial, Emerson-Robótica, Humberto-Eletropneumática]</t>
+          <t>[Cláudio-Tecnologia da Soldagem, Humberto-Eletropneumática, Rogério-Processos de Usinagem 2, Eudes-Microcontroladores]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Renan-Máquinas Elétri</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-, Pedro Bispo-Laboratório de Máquinas Elétricas, -]</t>
+          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, -, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Carlos-Processos de Usinagem 1, Leonardo R.-Manutenção mecânica, Nilton-Elementos de Máquinas, Vinicius-CAM]</t>
+          <t>[Emerson-Robótica, Vinicius-CAM, Carlos-Processos de Usinagem 1, Ludoff-Eletrohidráulica]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-, -, Eudes-Microcontroladores, Pedro Bispo-Automação Industrial]</t>
+          <t>[-, -, Nilton-Elementos de Máquinas, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Emerson-Robótica, Humberto-Eletropneumática]</t>
+          <t>[Cláudio-Tecnologia da Soldagem, Humberto-Eletropneumática, Rogério-Processos de Usinagem 2, Eudes-Microcontroladores]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Renan-Máquinas Elétri</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas, -]</t>
+          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, -, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Carlos-Processos de Usinagem 1, Leonardo R.-Manutenção mecânica, Nilton-Elementos de Máquinas, Vinicius-CAM]</t>
+          <t>[-, Leonardo R.-Manutenção mecânica, -, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Ludoff-Eletrohidráulica, Pedro Bispo-Automação Industrial, Cláudio-Tecnologia da Soldagem, -]</t>
+          <t>[Cláudio-Tecnologia da Soldagem, Humberto-Eletropneumática, Rogério-Processos de Usinagem 2, Eudes-Microcontroladores]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Renan-Máquinas Elétri</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas, -]</t>
+          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, -, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-, Leonardo R.-Manutenção mecânica, Nilton-Elementos de Máquinas, Vinicius-CAM]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[Cláudio-Tecnologia da Soldagem, Humberto-Eletropneumática, Rogério-Processos de Usinagem 2, Eudes-Microcontroladores]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Renan-Máquinas Elétri</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, -, João Paulo-Laboratório de Eletroeletrônica]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[-, Eudes-Microcontroladores, -, -]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
